--- a/django_project/wfrp/example_media/default_weapons.xlsx
+++ b/django_project/wfrp/example_media/default_weapons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t xml:space="preserve">character</t>
   </si>
@@ -68,6 +68,69 @@
   </si>
   <si>
     <t xml:space="preserve">+SB+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALUNDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLRELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 Yards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'+6’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pummeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Pistols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackpowder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Yards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'+8’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaging, Impale, Penetrating, Pistol, Reload 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERDINAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scythe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polearm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+SB+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaging</t>
   </si>
 </sst>
 </file>
@@ -177,16 +240,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,8 +317,261 @@
       <c r="F3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
